--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T09:32:48+00:00</t>
+    <t>2024-06-19T12:05:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T12:05:11+00:00</t>
+    <t>2024-06-25T16:45:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T06:41:39+00:00</t>
+    <t>2024-07-08T06:24:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T06:24:07+00:00</t>
+    <t>2024-07-11T13:07:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T13:07:17+00:00</t>
+    <t>2024-07-15T09:40:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T09:40:45+00:00</t>
+    <t>2024-07-16T10:33:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-16T10:33:51+00:00</t>
+    <t>2024-07-19T05:43:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2562" uniqueCount="425">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-19T05:43:00+00:00</t>
+    <t>2024-07-31T11:45:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -427,33 +427,90 @@
     <t>CoverageEligibilityResponse.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.extension:EndOfEligibility</t>
+  </si>
+  <si>
+    <t>EndOfEligibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/moped-ext-EndOfEligibility}
+</t>
+  </si>
+  <si>
+    <t>"Fristende"</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.extension:VAEStatus</t>
+  </si>
+  <si>
+    <t>VAEStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/moped-ext-vaestatus}
+</t>
+  </si>
+  <si>
+    <t>"VAEST - Status der Versichertenanspruchserklärung"</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.extension:MealCostExcemption</t>
+  </si>
+  <si>
+    <t>MealCostExcemption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/moped-ext-MealCostExcemption}
+</t>
+  </si>
+  <si>
+    <t>"VKBEFR – Verpflegskosten-Beitragsbefreiung"</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.extension:NumberOfPreviouslyPaidDays</t>
+  </si>
+  <si>
+    <t>NumberOfPreviouslyPaidDays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/moped-ext-NumberOfPreviouslyPaidDays}
+</t>
+  </si>
+  <si>
+    <t>"Vortageanzahl auf Kostenbeitrag:" Zur Berechnung des Verpflegskostenbeitrags für Versicherte sowie des Kostenbeitrags für Angehörige ist die Angabe der zu berücksichtigenden Vortage erforderlich. Der Krankenversicherungsträger ist auf Grund der ihm zugänglichen Informationen in der Lage, Vorpflegetage zu berücksichtigen. Berücksichtigt werden alle stationären Aufenthalte eines Patienten innerhalb eines Kalenderjahres.
+Der höchste Wert, mit welchem das Feld VTAGE befüllt werden kann, ist jener Wert, für welchen maximal ein Verpflegskostenbeitrag pro Kalenderjahr zu entrichten ist. Der Maximale Höchstwert beträgt somit 28 Tage.</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityResponse.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -461,6 +518,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R5/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -599,6 +659,9 @@
   </si>
   <si>
     <t>CoverageEligibilityResponse.event.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1572,7 +1635,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN66"/>
+  <dimension ref="A1:AN70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1583,7 +1646,7 @@
   <cols>
     <col min="1" max="1" width="65.5703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="65.5703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="28.390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1591,7 +1654,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="81.6328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="86.765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2547,7 +2610,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2566,17 +2629,15 @@
         <v>19</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>19</v>
@@ -2613,16 +2674,14 @@
         <v>19</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>138</v>
@@ -2649,7 +2708,7 @@
         <v>19</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>131</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -2657,43 +2716,41 @@
         <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O10" t="s" s="2">
         <v>143</v>
       </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>19</v>
       </c>
@@ -2741,7 +2798,7 @@
         <v>19</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2765,17 +2822,19 @@
         <v>19</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>131</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="C11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="B11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
         <v>19</v>
       </c>
@@ -2784,7 +2843,7 @@
         <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>19</v>
@@ -2802,12 +2861,10 @@
         <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>149</v>
-      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>19</v>
       </c>
@@ -2855,7 +2912,7 @@
         <v>19</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -2867,13 +2924,13 @@
         <v>19</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>19</v>
@@ -2884,18 +2941,20 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>19</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>86</v>
@@ -2904,26 +2963,22 @@
         <v>19</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>19</v>
       </c>
@@ -2947,13 +3002,13 @@
         <v>19</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>19</v>
@@ -2971,25 +3026,25 @@
         <v>19</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>19</v>
@@ -3000,21 +3055,23 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>19</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>19</v>
@@ -3023,21 +3080,19 @@
         <v>19</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>164</v>
-      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>19</v>
       </c>
@@ -3061,13 +3116,13 @@
         <v>19</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>19</v>
@@ -3085,10 +3140,10 @@
         <v>19</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>77</v>
@@ -3097,13 +3152,13 @@
         <v>19</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>19</v>
@@ -3114,43 +3169,45 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O14" t="s" s="2">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>19</v>
@@ -3199,39 +3256,39 @@
         <v>19</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>174</v>
+        <v>19</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>19</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3254,16 +3311,18 @@
         <v>19</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>19</v>
       </c>
@@ -3311,7 +3370,7 @@
         <v>19</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -3326,10 +3385,10 @@
         <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>19</v>
@@ -3340,10 +3399,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3351,7 +3410,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>86</v>
@@ -3360,22 +3419,26 @@
         <v>19</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>19</v>
       </c>
@@ -3399,13 +3462,13 @@
         <v>19</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>19</v>
+        <v>176</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>19</v>
@@ -3423,47 +3486,47 @@
         <v>19</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>186</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>77</v>
@@ -3475,21 +3538,21 @@
         <v>19</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>19</v>
       </c>
@@ -3513,13 +3576,13 @@
         <v>19</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>19</v>
@@ -3537,10 +3600,10 @@
         <v>19</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>77</v>
@@ -3549,62 +3612,60 @@
         <v>19</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>186</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>134</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>19</v>
@@ -3653,39 +3714,39 @@
         <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>131</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3693,10 +3754,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>19</v>
@@ -3708,13 +3769,13 @@
         <v>19</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3741,11 +3802,13 @@
         <v>19</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="Y19" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z19" t="s" s="2">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>19</v>
@@ -3763,13 +3826,13 @@
         <v>19</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>19</v>
@@ -3792,10 +3855,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3803,7 +3866,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>86</v>
@@ -3818,13 +3881,13 @@
         <v>19</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3875,19 +3938,19 @@
         <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>19</v>
+        <v>203</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>19</v>
@@ -3899,7 +3962,7 @@
         <v>19</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>19</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21">
@@ -3911,14 +3974,14 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>19</v>
@@ -3930,18 +3993,18 @@
         <v>19</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>209</v>
-      </c>
+      <c r="N21" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>19</v>
       </c>
@@ -3989,72 +4052,74 @@
         <v>19</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>19</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>19</v>
+        <v>210</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O22" t="s" s="2">
-        <v>216</v>
+        <v>161</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>19</v>
@@ -4103,39 +4168,39 @@
         <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>19</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4143,7 +4208,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>86</v>
@@ -4158,17 +4223,15 @@
         <v>19</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>19</v>
@@ -4193,13 +4256,11 @@
         <v>19</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>19</v>
@@ -4217,10 +4278,10 @@
         <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>86</v>
@@ -4235,10 +4296,10 @@
         <v>19</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>223</v>
+        <v>19</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>224</v>
+        <v>19</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>19</v>
@@ -4246,10 +4307,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4269,21 +4330,19 @@
         <v>19</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>229</v>
-      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>19</v>
       </c>
@@ -4331,7 +4390,7 @@
         <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>86</v>
@@ -4346,13 +4405,13 @@
         <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>230</v>
+        <v>19</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>231</v>
+        <v>19</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>232</v>
+        <v>19</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>19</v>
@@ -4360,10 +4419,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4371,7 +4430,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>86</v>
@@ -4383,22 +4442,20 @@
         <v>19</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>106</v>
+        <v>225</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>19</v>
@@ -4423,13 +4480,13 @@
         <v>19</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>238</v>
+        <v>19</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>239</v>
+        <v>19</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>19</v>
@@ -4447,10 +4504,10 @@
         <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>86</v>
@@ -4465,10 +4522,10 @@
         <v>19</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>19</v>
+        <v>229</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>19</v>
+        <v>230</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>19</v>
@@ -4476,10 +4533,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4487,7 +4544,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>86</v>
@@ -4499,20 +4556,20 @@
         <v>19</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>19</v>
@@ -4561,10 +4618,10 @@
         <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>86</v>
@@ -4576,10 +4633,10 @@
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>244</v>
+        <v>19</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>19</v>
+        <v>236</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>19</v>
@@ -4590,10 +4647,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4601,7 +4658,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>86</v>
@@ -4613,21 +4670,21 @@
         <v>19</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>19</v>
       </c>
@@ -4675,10 +4732,10 @@
         <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>86</v>
@@ -4693,10 +4750,10 @@
         <v>19</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>19</v>
+        <v>242</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>19</v>
+        <v>243</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>19</v>
@@ -4704,10 +4761,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4715,10 +4772,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>19</v>
@@ -4727,22 +4784,20 @@
         <v>19</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>177</v>
+        <v>245</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>19</v>
@@ -4791,13 +4846,13 @@
         <v>19</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>19</v>
@@ -4806,13 +4861,13 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>19</v>
+        <v>249</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>19</v>
+        <v>250</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>19</v>
+        <v>251</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>19</v>
@@ -4820,10 +4875,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4831,7 +4886,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>86</v>
@@ -4843,19 +4898,23 @@
         <v>19</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>182</v>
+        <v>253</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>19</v>
       </c>
@@ -4879,13 +4938,13 @@
         <v>19</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>19</v>
+        <v>257</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>19</v>
+        <v>258</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>19</v>
@@ -4903,19 +4962,19 @@
         <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>19</v>
@@ -4927,26 +4986,26 @@
         <v>19</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>186</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>19</v>
@@ -4958,18 +5017,18 @@
         <v>19</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>134</v>
+        <v>199</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>135</v>
+        <v>260</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>19</v>
       </c>
@@ -5017,22 +5076,22 @@
         <v>19</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>189</v>
+        <v>259</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>19</v>
+        <v>263</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>19</v>
@@ -5041,50 +5100,48 @@
         <v>19</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>186</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>134</v>
+        <v>265</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>192</v>
+        <v>266</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>143</v>
+        <v>268</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>19</v>
@@ -5133,19 +5190,19 @@
         <v>19</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>19</v>
@@ -5157,15 +5214,15 @@
         <v>19</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>131</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5173,10 +5230,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>19</v>
@@ -5185,20 +5242,22 @@
         <v>19</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>259</v>
+        <v>195</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O32" t="s" s="2">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>19</v>
@@ -5247,13 +5306,13 @@
         <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>19</v>
@@ -5276,10 +5335,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5302,18 +5361,16 @@
         <v>19</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>264</v>
+        <v>199</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>265</v>
+        <v>200</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>266</v>
+        <v>201</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>267</v>
-      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>19</v>
       </c>
@@ -5361,7 +5418,7 @@
         <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>263</v>
+        <v>202</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -5370,10 +5427,10 @@
         <v>86</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>19</v>
+        <v>203</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>19</v>
@@ -5385,26 +5442,26 @@
         <v>19</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>19</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>19</v>
@@ -5416,18 +5473,18 @@
         <v>19</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>269</v>
+        <v>133</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>270</v>
+        <v>206</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>19</v>
       </c>
@@ -5475,19 +5532,19 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>19</v>
@@ -5499,19 +5556,19 @@
         <v>19</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>19</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>19</v>
+        <v>210</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5524,22 +5581,26 @@
         <v>19</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>19</v>
       </c>
@@ -5587,7 +5648,7 @@
         <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>273</v>
+        <v>213</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5599,7 +5660,7 @@
         <v>19</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>276</v>
+        <v>139</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>19</v>
@@ -5611,7 +5672,7 @@
         <v>19</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>19</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36">
@@ -5627,7 +5688,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>86</v>
@@ -5639,19 +5700,21 @@
         <v>19</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>181</v>
+        <v>278</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>182</v>
+        <v>279</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>183</v>
+        <v>280</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>19</v>
       </c>
@@ -5699,19 +5762,19 @@
         <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>184</v>
+        <v>277</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>19</v>
@@ -5723,26 +5786,26 @@
         <v>19</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>186</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>19</v>
@@ -5754,18 +5817,18 @@
         <v>19</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>134</v>
+        <v>283</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>135</v>
+        <v>284</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>19</v>
       </c>
@@ -5813,19 +5876,19 @@
         <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>189</v>
+        <v>282</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>19</v>
@@ -5837,50 +5900,48 @@
         <v>19</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>186</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>134</v>
+        <v>288</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>192</v>
+        <v>289</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>143</v>
+        <v>291</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>19</v>
@@ -5929,19 +5990,19 @@
         <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>194</v>
+        <v>287</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>19</v>
@@ -5953,15 +6014,15 @@
         <v>19</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>131</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5972,7 +6033,7 @@
         <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>19</v>
@@ -5984,20 +6045,16 @@
         <v>19</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>19</v>
       </c>
@@ -6021,13 +6078,13 @@
         <v>19</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>285</v>
+        <v>19</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>286</v>
+        <v>19</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>19</v>
@@ -6045,19 +6102,19 @@
         <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>287</v>
+        <v>19</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>98</v>
+        <v>295</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>19</v>
@@ -6074,14 +6131,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>289</v>
+        <v>19</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6100,20 +6157,16 @@
         <v>19</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>19</v>
       </c>
@@ -6137,13 +6190,13 @@
         <v>19</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>294</v>
+        <v>19</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>295</v>
+        <v>19</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>19</v>
@@ -6161,7 +6214,7 @@
         <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>288</v>
+        <v>202</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6170,10 +6223,10 @@
         <v>86</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>287</v>
+        <v>203</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>19</v>
@@ -6185,19 +6238,19 @@
         <v>19</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>19</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6216,20 +6269,18 @@
         <v>19</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>196</v>
+        <v>133</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>297</v>
+        <v>206</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>298</v>
+        <v>207</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>19</v>
       </c>
@@ -6253,13 +6304,13 @@
         <v>19</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>301</v>
+        <v>19</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>302</v>
+        <v>19</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>19</v>
@@ -6277,7 +6328,7 @@
         <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6289,7 +6340,7 @@
         <v>19</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>19</v>
@@ -6301,48 +6352,50 @@
         <v>19</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>19</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>19</v>
+        <v>210</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>304</v>
+        <v>133</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>305</v>
+        <v>211</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O42" t="s" s="2">
-        <v>307</v>
+        <v>161</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>19</v>
@@ -6391,39 +6444,39 @@
         <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>303</v>
+        <v>213</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>223</v>
+        <v>19</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>224</v>
+        <v>19</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>19</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6446,17 +6499,19 @@
         <v>19</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="O43" t="s" s="2">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>19</v>
@@ -6481,13 +6536,13 @@
         <v>19</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>19</v>
+        <v>304</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>19</v>
@@ -6505,7 +6560,7 @@
         <v>19</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6514,7 +6569,7 @@
         <v>86</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>19</v>
+        <v>306</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>98</v>
@@ -6534,14 +6589,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>19</v>
+        <v>308</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6560,19 +6615,19 @@
         <v>19</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>19</v>
@@ -6597,13 +6652,13 @@
         <v>19</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>19</v>
+        <v>313</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>19</v>
+        <v>314</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>19</v>
@@ -6621,7 +6676,7 @@
         <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6630,7 +6685,7 @@
         <v>86</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>19</v>
+        <v>306</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>98</v>
@@ -6650,10 +6705,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6664,7 +6719,7 @@
         <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>19</v>
@@ -6676,19 +6731,19 @@
         <v>19</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>19</v>
@@ -6713,13 +6768,13 @@
         <v>19</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>19</v>
+        <v>320</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>19</v>
+        <v>321</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>19</v>
@@ -6737,13 +6792,13 @@
         <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>19</v>
@@ -6792,17 +6847,17 @@
         <v>19</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>196</v>
+        <v>323</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>19</v>
@@ -6827,13 +6882,13 @@
         <v>19</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>326</v>
+        <v>19</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>327</v>
+        <v>19</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>19</v>
@@ -6869,10 +6924,10 @@
         <v>19</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>19</v>
+        <v>242</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>19</v>
+        <v>243</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>19</v>
@@ -6880,10 +6935,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6906,17 +6961,17 @@
         <v>19</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>196</v>
+        <v>283</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>19</v>
@@ -6941,13 +6996,13 @@
         <v>19</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>333</v>
+        <v>19</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>19</v>
@@ -6965,7 +7020,7 @@
         <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -6994,10 +7049,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7020,17 +7075,19 @@
         <v>19</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="O48" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>19</v>
@@ -7055,13 +7112,13 @@
         <v>19</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>337</v>
+        <v>19</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>338</v>
+        <v>19</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>19</v>
@@ -7079,7 +7136,7 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -7108,10 +7165,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7122,7 +7179,7 @@
         <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>19</v>
@@ -7134,16 +7191,20 @@
         <v>19</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="O49" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>19</v>
       </c>
@@ -7191,13 +7252,13 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>19</v>
@@ -7220,10 +7281,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7246,16 +7307,18 @@
         <v>19</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>182</v>
+        <v>342</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>183</v>
+        <v>343</v>
       </c>
       <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>19</v>
       </c>
@@ -7279,13 +7342,13 @@
         <v>19</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>19</v>
+        <v>345</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>19</v>
+        <v>346</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>19</v>
@@ -7303,7 +7366,7 @@
         <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>184</v>
+        <v>341</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7312,10 +7375,10 @@
         <v>86</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>19</v>
@@ -7327,26 +7390,26 @@
         <v>19</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>186</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>19</v>
@@ -7358,18 +7421,18 @@
         <v>19</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>134</v>
+        <v>215</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>135</v>
+        <v>348</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>19</v>
       </c>
@@ -7393,13 +7456,13 @@
         <v>19</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>19</v>
+        <v>351</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>19</v>
+        <v>352</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>19</v>
@@ -7417,19 +7480,19 @@
         <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>189</v>
+        <v>347</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>19</v>
@@ -7441,50 +7504,48 @@
         <v>19</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>186</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>134</v>
+        <v>215</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>192</v>
+        <v>354</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>143</v>
+        <v>350</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>19</v>
@@ -7509,13 +7570,13 @@
         <v>19</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>19</v>
+        <v>356</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>19</v>
+        <v>357</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>19</v>
@@ -7533,19 +7594,19 @@
         <v>19</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>194</v>
+        <v>353</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>19</v>
@@ -7557,15 +7618,15 @@
         <v>19</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>131</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7573,10 +7634,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>19</v>
@@ -7588,20 +7649,16 @@
         <v>19</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>281</v>
+        <v>359</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>19</v>
       </c>
@@ -7625,13 +7682,13 @@
         <v>19</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>349</v>
+        <v>19</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>350</v>
+        <v>19</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>19</v>
@@ -7649,13 +7706,13 @@
         <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>19</v>
@@ -7678,10 +7735,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7704,18 +7761,16 @@
         <v>19</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>352</v>
+        <v>199</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>353</v>
+        <v>200</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>354</v>
+        <v>201</v>
       </c>
       <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>355</v>
-      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>19</v>
       </c>
@@ -7763,7 +7818,7 @@
         <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>351</v>
+        <v>202</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -7772,10 +7827,10 @@
         <v>86</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>19</v>
+        <v>203</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>19</v>
@@ -7787,26 +7842,26 @@
         <v>19</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>19</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>19</v>
@@ -7818,18 +7873,18 @@
         <v>19</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>352</v>
+        <v>133</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>357</v>
+        <v>206</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>19</v>
       </c>
@@ -7877,19 +7932,19 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>356</v>
+        <v>208</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>19</v>
@@ -7901,48 +7956,50 @@
         <v>19</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>19</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>19</v>
+        <v>210</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>264</v>
+        <v>133</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>361</v>
+        <v>211</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O56" t="s" s="2">
-        <v>363</v>
+        <v>161</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>19</v>
@@ -7991,19 +8048,19 @@
         <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>360</v>
+        <v>213</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>19</v>
@@ -8015,7 +8072,7 @@
         <v>19</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>19</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57">
@@ -8031,10 +8088,10 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>19</v>
@@ -8046,15 +8103,17 @@
         <v>19</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>367</v>
       </c>
@@ -8081,7 +8140,7 @@
         <v>19</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="Y57" t="s" s="2">
         <v>368</v>
@@ -8108,10 +8167,10 @@
         <v>364</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>19</v>
@@ -8160,17 +8219,17 @@
         <v>19</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>100</v>
+        <v>371</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>19</v>
@@ -8248,10 +8307,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8274,17 +8333,17 @@
         <v>19</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>181</v>
+        <v>371</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>19</v>
@@ -8333,7 +8392,7 @@
         <v>19</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8354,18 +8413,18 @@
         <v>19</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>378</v>
+        <v>19</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>379</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8388,19 +8447,17 @@
         <v>19</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>196</v>
+        <v>283</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>19</v>
@@ -8425,13 +8482,13 @@
         <v>19</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>385</v>
+        <v>19</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>386</v>
+        <v>19</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>19</v>
@@ -8449,7 +8506,7 @@
         <v>19</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8470,7 +8527,7 @@
         <v>19</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>387</v>
+        <v>19</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>19</v>
@@ -8478,10 +8535,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8504,17 +8561,17 @@
         <v>19</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>19</v>
@@ -8539,13 +8596,13 @@
         <v>19</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>19</v>
+        <v>387</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>19</v>
+        <v>388</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>19</v>
@@ -8563,7 +8620,7 @@
         <v>19</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -8592,10 +8649,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8618,16 +8675,18 @@
         <v>19</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>182</v>
+        <v>390</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>183</v>
+        <v>391</v>
       </c>
       <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>19</v>
       </c>
@@ -8675,7 +8734,7 @@
         <v>19</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>184</v>
+        <v>389</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -8684,10 +8743,10 @@
         <v>86</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>19</v>
@@ -8699,7 +8758,7 @@
         <v>19</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>186</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63">
@@ -8711,14 +8770,14 @@
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>19</v>
@@ -8730,18 +8789,18 @@
         <v>19</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>134</v>
+        <v>199</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>135</v>
+        <v>394</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>19</v>
       </c>
@@ -8789,19 +8848,19 @@
         <v>19</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>189</v>
+        <v>393</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>19</v>
@@ -8810,53 +8869,53 @@
         <v>19</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>19</v>
+        <v>397</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>186</v>
+        <v>398</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>134</v>
+        <v>215</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>192</v>
+        <v>400</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>193</v>
+        <v>401</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>137</v>
+        <v>402</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>143</v>
+        <v>403</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>19</v>
@@ -8881,13 +8940,13 @@
         <v>19</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>19</v>
+        <v>404</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>19</v>
+        <v>405</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>19</v>
@@ -8905,19 +8964,19 @@
         <v>19</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>194</v>
+        <v>399</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>19</v>
@@ -8926,18 +8985,18 @@
         <v>19</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>19</v>
+        <v>406</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>131</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8945,10 +9004,10 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>19</v>
@@ -8957,20 +9016,20 @@
         <v>19</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>19</v>
@@ -8995,13 +9054,13 @@
         <v>19</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>399</v>
+        <v>19</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>400</v>
+        <v>19</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>19</v>
@@ -9019,13 +9078,13 @@
         <v>19</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>19</v>
@@ -9048,10 +9107,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9062,7 +9121,7 @@
         <v>76</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>19</v>
@@ -9071,23 +9130,19 @@
         <v>19</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>402</v>
+        <v>200</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>19</v>
       </c>
@@ -9135,30 +9190,490 @@
         <v>19</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>401</v>
+        <v>202</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH66" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G67" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AI66" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
+      <c r="H67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AK66" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN66" t="s" s="2">
+      <c r="AK69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="P70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>19</v>
       </c>
     </row>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-31T11:45:17+00:00</t>
+    <t>2024-08-01T08:50:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-01T08:50:18+00:00</t>
+    <t>2024-08-01T13:41:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-01T13:41:58+00:00</t>
+    <t>2024-08-06T11:00:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T11:00:40+00:00</t>
+    <t>2024-08-06T12:10:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T12:10:21+00:00</t>
+    <t>2024-08-07T21:51:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-07T21:51:51+00:00</t>
+    <t>2024-09-03T06:35:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T06:35:21+00:00</t>
+    <t>2024-09-03T06:46:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T06:46:02+00:00</t>
+    <t>2024-09-05T05:58:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T05:58:31+00:00</t>
+    <t>2024-09-10T13:26:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T13:26:38+00:00</t>
+    <t>2024-09-11T18:39:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-11T18:39:22+00:00</t>
+    <t>2024-09-12T09:13:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T09:13:24+00:00</t>
+    <t>2024-09-12T16:58:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T16:58:21+00:00</t>
+    <t>2024-09-17T12:39:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T12:39:21+00:00</t>
+    <t>2024-09-17T13:24:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -886,7 +886,7 @@
     <t>CoverageEligibilityResponse.insurance.coverage</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Coverage)
+    <t xml:space="preserve">Reference(http://example.org/StructureDefinition/SVCCoverage)
 </t>
   </si>
   <si>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T13:24:04+00:00</t>
+    <t>2024-09-17T13:52:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T13:52:39+00:00</t>
+    <t>2024-09-17T14:02:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:02:22+00:00</t>
+    <t>2024-09-17T14:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:11:23+00:00</t>
+    <t>2024-09-17T14:20:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:20:09+00:00</t>
+    <t>2024-09-17T14:52:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:52:20+00:00</t>
+    <t>2024-09-17T17:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T17:35:28+00:00</t>
+    <t>2024-09-17T18:06:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T18:06:53+00:00</t>
+    <t>2024-09-17T18:22:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T18:22:57+00:00</t>
+    <t>2024-09-17T20:06:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T20:06:55+00:00</t>
+    <t>2024-09-17T20:22:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T20:22:56+00:00</t>
+    <t>2024-09-18T05:27:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T05:27:51+00:00</t>
+    <t>2024-09-19T11:50:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-19T11:50:53+00:00</t>
+    <t>2024-09-19T12:04:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-19T12:04:20+00:00</t>
+    <t>2024-09-22T15:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-22T15:40:07+00:00</t>
+    <t>2024-09-23T07:19:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T07:19:12+00:00</t>
+    <t>2024-09-23T11:09:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T11:09:48+00:00</t>
+    <t>2024-09-23T11:29:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T11:29:53+00:00</t>
+    <t>2024-09-23T11:42:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T11:42:54+00:00</t>
+    <t>2024-09-23T12:18:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T12:18:50+00:00</t>
+    <t>2024-09-23T18:28:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T18:28:00+00:00</t>
+    <t>2024-09-23T19:43:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T19:43:17+00:00</t>
+    <t>2024-09-23T19:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T19:56:54+00:00</t>
+    <t>2024-09-24T07:39:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T07:39:02+00:00</t>
+    <t>2024-09-25T11:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T11:00:26+00:00</t>
+    <t>2024-09-25T11:40:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T11:40:05+00:00</t>
+    <t>2024-09-25T11:54:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T11:54:18+00:00</t>
+    <t>2024-09-25T12:57:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T12:57:21+00:00</t>
+    <t>2024-09-25T14:29:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T14:29:33+00:00</t>
+    <t>2024-09-25T14:44:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T14:44:31+00:00</t>
+    <t>2024-09-26T07:10:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:10:34+00:00</t>
+    <t>2024-09-26T07:17:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:17:19+00:00</t>
+    <t>2024-09-26T07:48:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>MOPED Profil der CoverageEligibilityResponse Ressource für die Kostenübernahmeantwort.</t>
+    <t>MOPED Profil der CoverageEligibilityResponse Ressource für die Versichertenanspruchserklärung-Antwort.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:48:16+00:00</t>
+    <t>2024-09-26T07:51:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:51:13+00:00</t>
+    <t>2024-09-26T08:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T08:50:40+00:00</t>
+    <t>2024-09-26T08:56:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T08:56:22+00:00</t>
+    <t>2024-09-26T09:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T09:55:47+00:00</t>
+    <t>2024-09-26T09:59:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T09:59:14+00:00</t>
+    <t>2024-09-26T10:56:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T10:56:09+00:00</t>
+    <t>2024-09-26T13:32:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T13:32:53+00:00</t>
+    <t>2024-09-26T13:57:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T13:57:34+00:00</t>
+    <t>2024-09-27T07:18:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T07:18:42+00:00</t>
+    <t>2024-09-30T06:58:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T06:58:27+00:00</t>
+    <t>2024-09-30T08:02:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T08:02:36+00:00</t>
+    <t>2024-09-30T08:10:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T08:10:10+00:00</t>
+    <t>2024-09-30T08:14:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T08:14:13+00:00</t>
+    <t>2024-09-30T08:48:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T08:48:22+00:00</t>
+    <t>2024-09-30T09:04:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T09:04:34+00:00</t>
+    <t>2024-09-30T10:20:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T10:20:26+00:00</t>
+    <t>2024-09-30T12:24:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T12:24:06+00:00</t>
+    <t>2024-09-30T18:33:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T18:33:40+00:00</t>
+    <t>2024-10-01T09:38:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-01T09:38:16+00:00</t>
+    <t>2024-10-01T12:31:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-01T12:31:57+00:00</t>
+    <t>2024-10-07T08:22:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T08:22:28+00:00</t>
+    <t>2024-10-11T08:15:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T08:15:28+00:00</t>
+    <t>2024-10-11T09:22:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T09:22:23+00:00</t>
+    <t>2024-10-23T07:34:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T07:34:13+00:00</t>
+    <t>2024-10-23T11:03:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T11:03:56+00:00</t>
+    <t>2024-10-24T12:38:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T12:38:05+00:00</t>
+    <t>2024-10-24T13:32:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T13:32:35+00:00</t>
+    <t>2024-10-24T13:59:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T13:59:53+00:00</t>
+    <t>2024-10-24T14:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T14:28:41+00:00</t>
+    <t>2024-10-24T17:45:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T17:45:49+00:00</t>
+    <t>2024-10-24T18:34:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDCoverageEligibilityResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T18:34:10+00:00</t>
+    <t>2024-10-24T19:48:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
